--- a/resources/seq_patterns/pattern_selection_measures_names.xlsx
+++ b/resources/seq_patterns/pattern_selection_measures_names.xlsx
@@ -562,7 +562,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2278947</v>
+        <v>1811054</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2324340</v>
+        <v>1853119</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2331616</v>
+        <v>1860042</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2233593</v>
+        <v>1773561</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2230461</v>
+        <v>1770664</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2227662</v>
+        <v>1767968</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2212511</v>
+        <v>1755103</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>589138</v>
+        <v>440952</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>374986</v>
+        <v>245867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>367419</v>
+        <v>239703</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>357780</v>
+        <v>231384</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>323593</v>
+        <v>203070</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>298191</v>
+        <v>180395</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1172947</v>
+        <v>935925</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1010275</v>
+        <v>795513</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2116904</v>
+        <v>1693062</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1988405</v>
+        <v>1584378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1991354</v>
+        <v>1586699</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
